--- a/report/Evaluation/Evaluation_summary.xlsx
+++ b/report/Evaluation/Evaluation_summary.xlsx
@@ -459,19 +459,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>13276199075.71356</v>
+        <v>13295517610.71056</v>
       </c>
       <c r="D2">
-        <v>0.0005200495869951148</v>
+        <v>0.0005461832721380589</v>
       </c>
       <c r="E2">
-        <v>1.899434940690196E-05</v>
+        <v>4.516738097188917E-05</v>
       </c>
       <c r="F2">
-        <v>0.08637022972106934</v>
+        <v>0.09704264799753824</v>
       </c>
       <c r="G2">
-        <v>0.02978327610897607</v>
+        <v>0.05726590399683535</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -482,19 +482,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>13374128472.10769</v>
+        <v>13394179402.50253</v>
       </c>
       <c r="D3">
-        <v>0.7385976492857051</v>
+        <v>0.743019389461912</v>
       </c>
       <c r="E3">
-        <v>0.0212455166638542</v>
+        <v>0.02346725338414167</v>
       </c>
       <c r="F3">
-        <v>0.0223076343536377</v>
+        <v>0.02423209349314372</v>
       </c>
       <c r="G3">
-        <v>0.007250097889745091</v>
+        <v>0.007802051692651494</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,7 +505,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>13276130049.71672</v>
+        <v>13295445022.00567</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -514,10 +514,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.003714466094971</v>
+        <v>4.519001642862956</v>
       </c>
       <c r="G4">
-        <v>0.7157688579451651</v>
+        <v>1.270803185012772</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -528,19 +528,19 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>919425104.7358806</v>
+        <v>953037357.708009</v>
       </c>
       <c r="D5">
-        <v>0.006300790082817248</v>
+        <v>0.005927026763402692</v>
       </c>
       <c r="E5">
-        <v>0.001277466256993516</v>
+        <v>0.0009294673758722261</v>
       </c>
       <c r="F5">
-        <v>0.009592008590698243</v>
+        <v>0.004412841796875</v>
       </c>
       <c r="G5">
-        <v>0.009881330961963</v>
+        <v>0.0008997398924651092</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -551,19 +551,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>925815996.1864698</v>
+        <v>959410283.1121806</v>
       </c>
       <c r="D6">
-        <v>0.7031319652878116</v>
+        <v>0.6768115631696948</v>
       </c>
       <c r="E6">
-        <v>0.03965851393152058</v>
+        <v>0.04501497475941944</v>
       </c>
       <c r="F6">
-        <v>0.07292966842651367</v>
+        <v>0.001725157101949056</v>
       </c>
       <c r="G6">
-        <v>0.1584125705847899</v>
+        <v>0.0004388898964467182</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,7 +574,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>919367419.4595816</v>
+        <v>952981121.2240609</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2782829284667969</v>
+        <v>0.2001794417699178</v>
       </c>
       <c r="G7">
-        <v>0.08660263663312923</v>
+        <v>0.04179700731702157</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -597,19 +597,19 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>917740822.7611148</v>
+        <v>951267012.5233865</v>
       </c>
       <c r="D8">
-        <v>0.001728428058479627</v>
+        <v>0.001631607076300873</v>
       </c>
       <c r="E8">
-        <v>8.52347066358945E-05</v>
+        <v>0.0001441570595422645</v>
       </c>
       <c r="F8">
-        <v>0.008581209182739257</v>
+        <v>0.006608001391092936</v>
       </c>
       <c r="G8">
-        <v>0.002244008467660439</v>
+        <v>0.007295667997958653</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -620,19 +620,19 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>925815996.1864698</v>
+        <v>959410283.1121806</v>
       </c>
       <c r="D9">
-        <v>0.8840164538677765</v>
+        <v>0.8604699869860138</v>
       </c>
       <c r="E9">
-        <v>0.05592410233645975</v>
+        <v>0.05783222197679858</v>
       </c>
       <c r="F9">
-        <v>0.002463960647583008</v>
+        <v>0.003317848841349284</v>
       </c>
       <c r="G9">
-        <v>0.0001518156020901815</v>
+        <v>0.006294923602338247</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>917724971.9153221</v>
+        <v>951251528.2308103</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -652,10 +652,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4234108924865723</v>
+        <v>0.3240501960118612</v>
       </c>
       <c r="G10">
-        <v>0.0758284871106449</v>
+        <v>0.2483004927584637</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -666,19 +666,19 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>941503956.8976406</v>
+        <v>975767781.7900108</v>
       </c>
       <c r="D11">
-        <v>0.003089812949895395</v>
+        <v>0.002954222286156212</v>
       </c>
       <c r="E11">
-        <v>0.0005815671326115519</v>
+        <v>0.0003613066532917977</v>
       </c>
       <c r="F11">
-        <v>0.00408172607421875</v>
+        <v>0.004929558436075846</v>
       </c>
       <c r="G11">
-        <v>0.0006182457868228367</v>
+        <v>0.001766694565529101</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -689,19 +689,19 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>948504631.2511276</v>
+        <v>982764125.4489782</v>
       </c>
       <c r="D12">
-        <v>0.7486674251884146</v>
+        <v>0.7223600695081596</v>
       </c>
       <c r="E12">
-        <v>0.04504082478564622</v>
+        <v>0.04896271601423222</v>
       </c>
       <c r="F12">
-        <v>0.001784133911132812</v>
+        <v>0.001886947949727376</v>
       </c>
       <c r="G12">
-        <v>0.000580130128148028</v>
+        <v>0.0006307768956091953</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -712,7 +712,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>941474950.5273823</v>
+        <v>975739026.2984258</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1883070468902588</v>
+        <v>0.2680847803751628</v>
       </c>
       <c r="G13">
-        <v>0.03604662451382692</v>
+        <v>0.1973582359930365</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -735,19 +735,19 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>907471004.3006541</v>
+        <v>940737018.2848144</v>
       </c>
       <c r="D14">
-        <v>0.003206144776951169</v>
+        <v>0.00306430489968737</v>
       </c>
       <c r="E14">
-        <v>0.0006057875625159716</v>
+        <v>0.0003753593158449414</v>
       </c>
       <c r="F14">
-        <v>0.004626750946044922</v>
+        <v>0.004395675659179687</v>
       </c>
       <c r="G14">
-        <v>0.0007816255405109449</v>
+        <v>0.001606732171123169</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -758,19 +758,19 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>914471678.6541408</v>
+        <v>947733361.9437816</v>
       </c>
       <c r="D15">
-        <v>0.7767632287012696</v>
+        <v>0.7492530638515955</v>
       </c>
       <c r="E15">
-        <v>0.0468317071095094</v>
+        <v>0.05069009389601639</v>
       </c>
       <c r="F15">
-        <v>0.001858997344970703</v>
+        <v>0.002154660224914551</v>
       </c>
       <c r="G15">
-        <v>0.0004230578099226625</v>
+        <v>0.002945650528429483</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>907441997.930397</v>
+        <v>940708262.7932296</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2441288948059082</v>
+        <v>0.1816165685653686</v>
       </c>
       <c r="G16">
-        <v>0.1035493349631793</v>
+        <v>0.02429979289883052</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -804,19 +804,19 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>918815321.832983</v>
+        <v>952413939.4532131</v>
       </c>
       <c r="D17">
-        <v>0.003166405826861779</v>
+        <v>0.003026709904419351</v>
       </c>
       <c r="E17">
-        <v>0.0005974950514425164</v>
+        <v>0.0003705537622750281</v>
       </c>
       <c r="F17">
-        <v>0.006952142715454102</v>
+        <v>0.007632605234781901</v>
       </c>
       <c r="G17">
-        <v>0.0006611424277826466</v>
+        <v>0.002901962304639901</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -827,19 +827,19 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>925815996.1864698</v>
+        <v>959410283.1121806</v>
       </c>
       <c r="D18">
-        <v>0.767166433280701</v>
+        <v>0.7400688616818561</v>
       </c>
       <c r="E18">
-        <v>0.04621802559738942</v>
+        <v>0.0501001075607913</v>
       </c>
       <c r="F18">
-        <v>0.002766227722167969</v>
+        <v>0.002750237782796224</v>
       </c>
       <c r="G18">
-        <v>0.0005457970627832658</v>
+        <v>0.0009717541430733458</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -850,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>918786315.462725</v>
+        <v>952385183.9616292</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4984185695648193</v>
+        <v>0.4011522769927979</v>
       </c>
       <c r="G19">
-        <v>0.2316562606725779</v>
+        <v>0.168320820654223</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -873,19 +873,19 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>16980168.91087649</v>
+        <v>17093471.86371057</v>
       </c>
       <c r="D20">
-        <v>0.04713994580105375</v>
+        <v>0.04247675393651663</v>
       </c>
       <c r="E20">
-        <v>0.0206213038928847</v>
+        <v>0.01697093407604897</v>
       </c>
       <c r="F20">
-        <v>0.0002678394317626953</v>
+        <v>0.0003525018692016602</v>
       </c>
       <c r="G20">
-        <v>4.41372615915896E-05</v>
+        <v>9.659399214787308E-05</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -896,19 +896,19 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>17083596.82864292</v>
+        <v>17202442.32115834</v>
       </c>
       <c r="D21">
-        <v>0.6973418050688986</v>
+        <v>0.6949361415213394</v>
       </c>
       <c r="E21">
-        <v>0.2552028084479381</v>
+        <v>0.178364225951463</v>
       </c>
       <c r="F21">
-        <v>0.0001657962799072266</v>
+        <v>0.0002064387003580729</v>
       </c>
       <c r="G21">
-        <v>5.299777415869371E-05</v>
+        <v>6.62522566698535E-05</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -919,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>16972622.25549275</v>
+        <v>17086619.93671264</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.009468507766723634</v>
+        <v>0.0156747023264567</v>
       </c>
       <c r="G22">
-        <v>0.001062006495837339</v>
+        <v>0.01473418053629429</v>
       </c>
     </row>
   </sheetData>
